--- a/Supporting/ProjDatabase_MetadataElements20210511.xlsx
+++ b/Supporting/ProjDatabase_MetadataElements20210511.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ehunsing\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62BE446-8288-495F-BAD4-2F87C2A629A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DC3A59-16F7-4BA8-8912-22DCA717F695}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{4369A940-B169-4D43-BF15-FF77031E4939}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="180">
   <si>
     <t>issued</t>
   </si>
@@ -592,6 +592,9 @@
   </si>
   <si>
     <t>metropolitan statistical area</t>
+  </si>
+  <si>
+    <t>Eddie Hunsinger, May 2021</t>
   </si>
 </sst>
 </file>
@@ -992,7 +995,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E1002A-F87C-4876-99D5-E9D0733DECE5}">
-  <dimension ref="B2:Y30"/>
+  <dimension ref="B2:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2801,6 +2804,11 @@
         <v>124</v>
       </c>
     </row>
+    <row r="32" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Supporting/ProjDatabase_MetadataElements20210511.xlsx
+++ b/Supporting/ProjDatabase_MetadataElements20210511.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edynivn\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D90CE8E-24B6-4465-951D-A89BB9251C17}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1094AA-263D-4CF9-A9E1-9E25D4BD152F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4369A940-B169-4D43-BF15-FF77031E4939}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="133">
   <si>
     <t>age</t>
   </si>
@@ -430,6 +430,9 @@
   </si>
   <si>
     <t>,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This file is in support of https://applieddemogtoolbox.github.io/projectionsdatabase/ </t>
   </si>
 </sst>
 </file>
@@ -823,7 +826,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E1002A-F87C-4876-99D5-E9D0733DECE5}">
-  <dimension ref="B2:V26"/>
+  <dimension ref="B2:V29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2389,6 +2392,11 @@
         <v>48</v>
       </c>
     </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
